--- a/docs/Tabela de Estimativa de Projeto Equipe 10.xlsx
+++ b/docs/Tabela de Estimativa de Projeto Equipe 10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ub\Dropbox\UNIFEI\Sdes06 - Adler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046FDE11-8666-4112-B91A-8021BADECC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7936620-0EA3-4F3B-A863-DBD91A763E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -693,18 +693,6 @@
     <t>[RFS24] Anexar arquivo</t>
   </si>
   <si>
-    <t>[RFS25] Sincronizar dados com SIGAA</t>
-  </si>
-  <si>
-    <t>[RFS26] Autenticar via SIGAA</t>
-  </si>
-  <si>
-    <t>[RFS27] Enviar notificação por e-mail</t>
-  </si>
-  <si>
-    <t>[RFS28] Enviar notificação por WhatsApp</t>
-  </si>
-  <si>
     <t>[RFS29] Visualizar dashboard</t>
   </si>
   <si>
@@ -733,6 +721,18 @@
   </si>
   <si>
     <t>[RFS08] Excluir Excluir Recados</t>
+  </si>
+  <si>
+    <t>[RFS25] Listar Arquivos</t>
+  </si>
+  <si>
+    <t>[RFS26] Baixar Arquivos</t>
+  </si>
+  <si>
+    <t>[RFS27] Excluir Arquivos</t>
+  </si>
+  <si>
+    <t>[RFS28] Gerar Relatório Geral</t>
   </si>
 </sst>
 </file>
@@ -1707,35 +1707,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -1746,19 +1736,29 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1771,19 +1771,19 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2526,32 +2526,32 @@
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="2"/>
       <c r="L3"/>
       <c r="M3"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
       <c r="K4" s="2"/>
       <c r="L4"/>
       <c r="M4"/>
@@ -2571,54 +2571,54 @@
       <c r="M5"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="113" t="s">
+      <c r="C6" s="99"/>
+      <c r="D6" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="114" t="s">
+      <c r="C7" s="101"/>
+      <c r="D7" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="106"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="96">
         <v>45956</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="107" t="s">
+      <c r="F8" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="107"/>
+      <c r="G8" s="101"/>
       <c r="H8" s="3" t="s">
         <v>117</v>
       </c>
@@ -2631,14 +2631,14 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="108" t="s">
+      <c r="D9" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
       <c r="J9" s="6"/>
       <c r="K9"/>
       <c r="L9"/>
@@ -2673,18 +2673,18 @@
       <c r="M11"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="109" t="s">
+      <c r="B12" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
       <c r="F12"/>
-      <c r="G12" s="110" t="s">
+      <c r="G12" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
       <c r="J12" s="7" t="s">
         <v>8</v>
       </c>
@@ -2695,21 +2695,21 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
       <c r="E13" s="9">
         <f>Atores!D10+UC!D10</f>
         <v>167</v>
       </c>
       <c r="F13"/>
-      <c r="G13" s="103" t="s">
+      <c r="G13" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
       <c r="J13" s="10">
         <f t="shared" ref="J13:J20" si="0">$E$13*$E$14*K13</f>
         <v>23.380000000000003</v>
@@ -2721,20 +2721,20 @@
       <c r="L13"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
       <c r="E14" s="12">
         <v>3</v>
       </c>
       <c r="F14"/>
-      <c r="G14" s="102" t="s">
+      <c r="G14" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
       <c r="J14" s="13">
         <f t="shared" si="0"/>
         <v>82.38666666666667</v>
@@ -2746,15 +2746,15 @@
       <c r="L14"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
       <c r="F15"/>
-      <c r="G15" s="102" t="s">
+      <c r="G15" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
       <c r="J15" s="13">
         <f t="shared" si="0"/>
         <v>20.596666666666668</v>
@@ -2766,16 +2766,16 @@
       <c r="L15"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
       <c r="E16"/>
       <c r="F16"/>
-      <c r="G16" s="102" t="s">
+      <c r="G16" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
       <c r="J16" s="13">
         <f t="shared" si="0"/>
         <v>33.4</v>
@@ -2791,11 +2791,11 @@
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
-      <c r="G17" s="98" t="s">
+      <c r="G17" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
       <c r="J17" s="13">
         <f t="shared" si="0"/>
         <v>278.33333333333337</v>
@@ -2812,11 +2812,11 @@
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
-      <c r="G18" s="98" t="s">
+      <c r="G18" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="112"/>
       <c r="J18" s="13">
         <f t="shared" si="0"/>
         <v>11.133333333333335</v>
@@ -2830,11 +2830,11 @@
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
-      <c r="G19" s="98" t="s">
+      <c r="G19" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="112"/>
       <c r="J19" s="13">
         <f t="shared" si="0"/>
         <v>33.956666666666671</v>
@@ -2852,11 +2852,11 @@
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="98" t="s">
+      <c r="G20" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="98"/>
-      <c r="I20" s="98"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
       <c r="J20" s="13">
         <f t="shared" si="0"/>
         <v>17.813333333333333</v>
@@ -2872,11 +2872,11 @@
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
-      <c r="G21" s="99" t="s">
+      <c r="G21" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
       <c r="J21" s="17">
         <f>SUM(J13:J19)</f>
         <v>483.18666666666667</v>
@@ -2887,30 +2887,30 @@
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="100" t="s">
+      <c r="B22" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="111"/>
     </row>
     <row r="23" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="101" t="s">
+      <c r="B23" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="114"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
@@ -2963,47 +2963,47 @@
       <c r="J27"/>
     </row>
     <row r="28" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="101" t="s">
+      <c r="B28" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="101"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
     </row>
     <row r="37" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B3:J4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B3:J4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:I7"/>
   </mergeCells>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3304,8 +3304,8 @@
   </sheetPr>
   <dimension ref="A1:AMK1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3477,7 +3477,7 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="58"/>
       <c r="B13" s="59" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C13" s="60">
         <v>1</v>
@@ -3495,7 +3495,7 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="58"/>
       <c r="B14" s="59" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C14" s="60">
         <v>1</v>
@@ -3513,7 +3513,7 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="58"/>
       <c r="B15" s="59" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C15" s="60">
         <v>2</v>
@@ -3531,7 +3531,7 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="58"/>
       <c r="B16" s="59" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C16" s="60">
         <v>2</v>
@@ -3549,7 +3549,7 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="58"/>
       <c r="B17" s="59" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C17" s="60">
         <v>1</v>
@@ -3567,7 +3567,7 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="58"/>
       <c r="B18" s="59" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C18" s="60">
         <v>1</v>
@@ -3584,7 +3584,7 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="58"/>
       <c r="B19" s="59" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C19" s="60">
         <v>2</v>
@@ -3601,7 +3601,7 @@
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="58"/>
       <c r="B20" s="59" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C20" s="60">
         <v>2</v>
@@ -3890,7 +3890,7 @@
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="58"/>
       <c r="B37" s="59" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C37" s="60">
         <v>4</v>
@@ -3907,7 +3907,7 @@
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="58"/>
       <c r="B38" s="59" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C38" s="60">
         <v>2</v>
@@ -3924,7 +3924,7 @@
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="58"/>
       <c r="B39" s="59" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C39" s="60">
         <v>2</v>
@@ -3938,7 +3938,7 @@
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="58"/>
       <c r="B40" s="59" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C40" s="60">
         <v>2</v>
@@ -3952,7 +3952,7 @@
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="58"/>
       <c r="B41" s="59" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C41" s="60">
         <v>1</v>
@@ -3966,7 +3966,7 @@
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="58"/>
       <c r="B42" s="59" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C42" s="60">
         <v>1</v>
@@ -9012,12 +9012,12 @@
       <c r="M6"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
       <c r="F7"/>
       <c r="G7"/>
     </row>
@@ -9298,12 +9298,12 @@
       <c r="I25"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="121" t="s">
+      <c r="B26" s="120" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="121"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
       <c r="F26" s="69"/>
       <c r="G26" s="70"/>
       <c r="I26"/>
@@ -9312,11 +9312,11 @@
       <c r="B27" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="122" t="s">
+      <c r="C27" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="122"/>
-      <c r="E27" s="122"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="71" t="s">
         <v>30</v>
       </c>
@@ -9329,11 +9329,11 @@
       <c r="B28" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="118" t="s">
+      <c r="C28" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
       <c r="F28" s="28">
         <v>1.5</v>
       </c>
@@ -9346,11 +9346,11 @@
       <c r="B29" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="118" t="s">
+      <c r="C29" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="118"/>
-      <c r="E29" s="118"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
       <c r="F29" s="28">
         <v>0.5</v>
       </c>
@@ -9363,11 +9363,11 @@
       <c r="B30" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="118" t="s">
+      <c r="C30" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="118"/>
-      <c r="E30" s="118"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
       <c r="F30" s="28">
         <v>1</v>
       </c>
@@ -9380,11 +9380,11 @@
       <c r="B31" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="118" t="s">
+      <c r="C31" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="118"/>
-      <c r="E31" s="118"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
       <c r="F31" s="28">
         <v>0.5</v>
       </c>
@@ -9397,11 +9397,11 @@
       <c r="B32" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="118" t="s">
+      <c r="C32" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="118"/>
-      <c r="E32" s="118"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="122"/>
       <c r="F32" s="28">
         <v>1</v>
       </c>
@@ -9414,11 +9414,11 @@
       <c r="B33" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="118" t="s">
+      <c r="C33" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="118"/>
-      <c r="E33" s="118"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
       <c r="F33" s="28">
         <v>2</v>
       </c>
@@ -9431,11 +9431,11 @@
       <c r="B34" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="118" t="s">
+      <c r="C34" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="118"/>
-      <c r="E34" s="118"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
       <c r="F34" s="28">
         <v>-1</v>
       </c>
@@ -9448,11 +9448,11 @@
       <c r="B35" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="118" t="s">
+      <c r="C35" s="122" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="118"/>
-      <c r="E35" s="118"/>
+      <c r="D35" s="122"/>
+      <c r="E35" s="122"/>
       <c r="F35" s="28">
         <v>-1</v>
       </c>
@@ -9477,11 +9477,6 @@
   </sheetData>
   <sheetProtection password="C6D5" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="14">
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="C27:E27"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="C35:E35"/>
@@ -9491,6 +9486,11 @@
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C32:E32"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="C27:E27"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="whole" showErrorMessage="1" promptTitle="Influência" sqref="E9:E21 I9:I21" xr:uid="{00000000-0002-0000-0300-000000000000}">
